--- a/data/050710.xlsx
+++ b/data/050710.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>YWLSH</t>
   </si>
@@ -71,6 +71,79 @@
   </si>
   <si>
     <t>DJSJ</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01043</t>
+  </si>
+  <si>
+    <t>91440300MA5D87Y74G</t>
+  </si>
+  <si>
+    <t>深圳市宇彦科技有限公司</t>
+  </si>
+  <si>
+    <t>440300700163</t>
+  </si>
+  <si>
+    <t>深圳湾派出所</t>
+  </si>
+  <si>
+    <t>程某</t>
+  </si>
+  <si>
+    <t>库房</t>
+  </si>
+  <si>
+    <t>91440300MA5DC4PX3M</t>
+  </si>
+  <si>
+    <t>深圳市德和生物科技有限公司</t>
+  </si>
+  <si>
+    <r>
+      <t>龙岗区平湖街道平新北路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栋五楼</t>
+    </r>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>未记录</t>
+  </si>
+  <si>
+    <t>邱诚</t>
   </si>
 </sst>
 </file>
@@ -79,12 +152,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -92,21 +165,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -114,9 +221,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,21 +283,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,75 +298,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +311,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,13 +329,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,169 +479,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,15 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,21 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +569,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,157 +587,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1012,31 +1093,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
+    <col min="1" max="1" width="36.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="26.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="25.4444444444444" customWidth="1"/>
+    <col min="4" max="5" width="14.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="14.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="22.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="9" max="9" width="14.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="25.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="12.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="29.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="38.6666666666667" customWidth="1"/>
     <col min="13" max="13" width="22.7777777777778" customWidth="1"/>
     <col min="14" max="14" width="20.6666666666667" customWidth="1"/>
     <col min="15" max="15" width="13.5555555555556" customWidth="1"/>
     <col min="16" max="16" width="15.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="11.4444444444444" customWidth="1"/>
-    <col min="18" max="18" width="11.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="5.11111111111111" customWidth="1"/>
+    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="25.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1064,7 +1146,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1094,8 +1176,67 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43163.4284722222</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>13425197889</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2">
+        <v>43163.4291666667</v>
       </c>
     </row>
   </sheetData>
